--- a/target/classes/TestDataFromExcel/ProrgamsData.xlsx
+++ b/target/classes/TestDataFromExcel/ProrgamsData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\java\TestDataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3280B584-DE60-4980-93DB-3E14793759A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B534D4-5DDB-4188-8935-B1F9991679EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{880FD434-613A-4F7F-9E1F-5A285E5D0834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{880FD434-613A-4F7F-9E1F-5A285E5D0834}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramsNew" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramsEdit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>cipCode</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>isOverrideProgramGroupChanges</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!!!!NewPrograms</t>
+  </si>
+  <si>
+    <t>!!!NEW</t>
   </si>
 </sst>
 </file>
@@ -427,16 +434,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8637E359-21B5-4AA0-96BA-71791F0B4B2D}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -481,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -499,6 +508,35 @@
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -508,7 +546,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC21C06B-F666-4DDF-A7D9-E9D94364912A}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC3289C22E4E454B998CF2ED6E982FC7" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="928fdb1e87082c0e5714606597bfe60d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c63ac055-c2f3-49d5-8c72-3df8cabb9ce0" xmlns:ns4="5cc63a16-23db-4e0f-a63b-857d6477ca07" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c9def4e3e0a70f013bb059f03cd94c9" ns3:_="" ns4:_="">
     <xsd:import namespace="c63ac055-c2f3-49d5-8c72-3df8cabb9ce0"/>
@@ -731,22 +861,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{124F1649-CB41-4B07-8280-3C3F1987BC56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c63ac055-c2f3-49d5-8c72-3df8cabb9ce0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5cc63a16-23db-4e0f-a63b-857d6477ca07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57F5E20-4B8C-4E9C-B81C-2B5F84B1A66A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01710245-C795-4DFE-98C9-80595A288B63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -763,29 +903,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57F5E20-4B8C-4E9C-B81C-2B5F84B1A66A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{124F1649-CB41-4B07-8280-3C3F1987BC56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c63ac055-c2f3-49d5-8c72-3df8cabb9ce0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5cc63a16-23db-4e0f-a63b-857d6477ca07"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>